--- a/simulation_data/iterative_algorithm/i_error_level_12_percent_water_20.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_12_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.24782573971619</v>
+        <v>90.83378074302165</v>
       </c>
       <c r="D2" t="n">
-        <v>12.75908412123582</v>
+        <v>12.79000696454738</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.28164677192612</v>
+        <v>89.50290011406871</v>
       </c>
       <c r="D3" t="n">
-        <v>13.98429698046669</v>
+        <v>13.50574661796825</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.99385051812527</v>
+        <v>87.98876185602433</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5007394748587</v>
+        <v>12.94440477630145</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.92003038445597</v>
+        <v>84.23421477733451</v>
       </c>
       <c r="D5" t="n">
-        <v>14.69776490029437</v>
+        <v>13.39746961929075</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.98293309145862</v>
+        <v>84.06962438325685</v>
       </c>
       <c r="D6" t="n">
-        <v>13.73347040844207</v>
+        <v>13.0208521473528</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.25551818183023</v>
+        <v>85.0938916112531</v>
       </c>
       <c r="D7" t="n">
-        <v>14.67462917770915</v>
+        <v>14.21632379626062</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.96447289099778</v>
+        <v>83.45285177293663</v>
       </c>
       <c r="D8" t="n">
-        <v>15.79467914457958</v>
+        <v>12.13407310150299</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.55571962447831</v>
+        <v>83.57987696467796</v>
       </c>
       <c r="D9" t="n">
-        <v>13.31336316964009</v>
+        <v>14.24593066916633</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.558995444622</v>
+        <v>81.95923985166732</v>
       </c>
       <c r="D10" t="n">
-        <v>14.33876817000999</v>
+        <v>13.27503662396847</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.03104123083678</v>
+        <v>79.23566953162489</v>
       </c>
       <c r="D11" t="n">
-        <v>14.58355845772817</v>
+        <v>14.07781079654881</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.58860479168762</v>
+        <v>79.56363915137091</v>
       </c>
       <c r="D12" t="n">
-        <v>13.74742397498944</v>
+        <v>13.13388091999958</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>76.40796621567981</v>
+        <v>81.48171805080631</v>
       </c>
       <c r="D13" t="n">
-        <v>13.47144589009994</v>
+        <v>12.61915918011263</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.91772577690476</v>
+        <v>77.29646508872671</v>
       </c>
       <c r="D14" t="n">
-        <v>14.80141631867587</v>
+        <v>14.05808738823908</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.52022902893503</v>
+        <v>76.79896884838223</v>
       </c>
       <c r="D15" t="n">
-        <v>13.52143228915765</v>
+        <v>13.96993038645913</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.49310786344677</v>
+        <v>75.66924286697173</v>
       </c>
       <c r="D16" t="n">
-        <v>14.01770091835981</v>
+        <v>13.10777677570212</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.92328312716324</v>
+        <v>71.99711461857871</v>
       </c>
       <c r="D17" t="n">
-        <v>14.58863467887719</v>
+        <v>14.16282482415539</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.5945291441919</v>
+        <v>72.93244235256856</v>
       </c>
       <c r="D18" t="n">
-        <v>15.32623964390959</v>
+        <v>12.93508558300424</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>70.31894929032113</v>
+        <v>73.2608818207693</v>
       </c>
       <c r="D19" t="n">
-        <v>16.0240932376971</v>
+        <v>13.78622044499567</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.24875107025255</v>
+        <v>71.49007981919631</v>
       </c>
       <c r="D20" t="n">
-        <v>14.88853651461049</v>
+        <v>14.41637875084095</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.20002446883377</v>
+        <v>67.60286435451711</v>
       </c>
       <c r="D21" t="n">
-        <v>14.82898032312505</v>
+        <v>13.69737450467806</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.21139165058683</v>
+        <v>71.12156797766458</v>
       </c>
       <c r="D22" t="n">
-        <v>14.61746036439574</v>
+        <v>12.92647138608967</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.4271232628126</v>
+        <v>68.31679272912952</v>
       </c>
       <c r="D23" t="n">
-        <v>13.0966335931919</v>
+        <v>15.85890140760348</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>64.43428486514959</v>
+        <v>66.9143938361094</v>
       </c>
       <c r="D24" t="n">
-        <v>13.95483931956991</v>
+        <v>12.88083564354798</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.49102518058945</v>
+        <v>68.30156133658336</v>
       </c>
       <c r="D25" t="n">
-        <v>15.40791415624495</v>
+        <v>14.50793891279778</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.71486200775466</v>
+        <v>64.73429869889347</v>
       </c>
       <c r="D26" t="n">
-        <v>12.15569182391819</v>
+        <v>13.38621186372934</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.06479905196329</v>
+        <v>66.40614455076842</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6528185208982</v>
+        <v>12.15041440454682</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.42400078185253</v>
+        <v>62.19468113306561</v>
       </c>
       <c r="D28" t="n">
-        <v>14.87111254941406</v>
+        <v>13.56729121421629</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.39749702965216</v>
+        <v>62.57302374526844</v>
       </c>
       <c r="D29" t="n">
-        <v>14.88856478920801</v>
+        <v>12.69866525972594</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.55081079849412</v>
+        <v>62.79318756174124</v>
       </c>
       <c r="D30" t="n">
-        <v>13.03353475402646</v>
+        <v>13.94005377103693</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.45972345730171</v>
+        <v>58.99412812769405</v>
       </c>
       <c r="D31" t="n">
-        <v>12.96288066464561</v>
+        <v>14.18477965989236</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.88201154940552</v>
+        <v>60.58368103667956</v>
       </c>
       <c r="D32" t="n">
-        <v>14.056208217432</v>
+        <v>11.72402285728688</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.50407042365412</v>
+        <v>59.04658331088467</v>
       </c>
       <c r="D33" t="n">
-        <v>15.51368595934599</v>
+        <v>13.36350447081698</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.84069248327982</v>
+        <v>56.18763214712008</v>
       </c>
       <c r="D34" t="n">
-        <v>14.05614003872931</v>
+        <v>14.47966072028164</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.92824961296382</v>
+        <v>57.6509244084131</v>
       </c>
       <c r="D35" t="n">
-        <v>13.60000705886398</v>
+        <v>13.89013878911606</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.61216790372402</v>
+        <v>54.67764607821942</v>
       </c>
       <c r="D36" t="n">
-        <v>13.6291457816443</v>
+        <v>14.39805634132344</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.47561866413386</v>
+        <v>54.54049533835455</v>
       </c>
       <c r="D37" t="n">
-        <v>14.32567038091561</v>
+        <v>14.78371301261643</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>55.91644058409373</v>
+        <v>55.75089446001769</v>
       </c>
       <c r="D38" t="n">
-        <v>14.80160280788884</v>
+        <v>13.79765422710243</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.94869697816183</v>
+        <v>53.25592399543982</v>
       </c>
       <c r="D39" t="n">
-        <v>14.62833517485402</v>
+        <v>14.00783765194897</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.17722226503007</v>
+        <v>50.64725557197536</v>
       </c>
       <c r="D40" t="n">
-        <v>13.96446895161755</v>
+        <v>14.79306766776707</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.6734949434319</v>
+        <v>51.70736921854232</v>
       </c>
       <c r="D41" t="n">
-        <v>14.43003206169458</v>
+        <v>13.58521613341743</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>47.78113782658276</v>
+        <v>47.45976541984925</v>
       </c>
       <c r="D42" t="n">
-        <v>13.20542608444745</v>
+        <v>12.53909307987035</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.4652228681808</v>
+        <v>49.76106860488679</v>
       </c>
       <c r="D43" t="n">
-        <v>13.50610050396514</v>
+        <v>13.96563275561307</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.06035343372086</v>
+        <v>47.6481731755841</v>
       </c>
       <c r="D44" t="n">
-        <v>14.21813384225262</v>
+        <v>14.40715898356964</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.90759532791331</v>
+        <v>47.07981431091149</v>
       </c>
       <c r="D45" t="n">
-        <v>14.42123647033836</v>
+        <v>13.95318138027874</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.80461549858927</v>
+        <v>44.89180223468797</v>
       </c>
       <c r="D46" t="n">
-        <v>14.26986720185152</v>
+        <v>14.24846200009958</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.72264198190215</v>
+        <v>45.55919134814945</v>
       </c>
       <c r="D47" t="n">
-        <v>15.50019502244548</v>
+        <v>13.34072419185759</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.56700890541774</v>
+        <v>44.97281806357457</v>
       </c>
       <c r="D48" t="n">
-        <v>15.11334767706675</v>
+        <v>14.54494386773406</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.49824899333296</v>
+        <v>39.55864370308152</v>
       </c>
       <c r="D49" t="n">
-        <v>13.35461830562944</v>
+        <v>13.591192253476</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.18036107780862</v>
+        <v>41.62439287595073</v>
       </c>
       <c r="D50" t="n">
-        <v>12.5790622053229</v>
+        <v>14.98282033008361</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.63218398261083</v>
+        <v>40.07053850769948</v>
       </c>
       <c r="D51" t="n">
-        <v>13.69415194486379</v>
+        <v>14.23139070621579</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>36.30464588275962</v>
+        <v>41.70926771520537</v>
       </c>
       <c r="D52" t="n">
-        <v>14.48177386080719</v>
+        <v>15.18728106998016</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.91883539851991</v>
+        <v>42.59370619429362</v>
       </c>
       <c r="D53" t="n">
-        <v>15.18542566082338</v>
+        <v>14.97919511137503</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.82049181184743</v>
+        <v>37.21695138947298</v>
       </c>
       <c r="D54" t="n">
-        <v>15.45981166972144</v>
+        <v>15.11252999313931</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>34.40599824465723</v>
+        <v>39.31514662658481</v>
       </c>
       <c r="D55" t="n">
-        <v>14.31812665002647</v>
+        <v>13.26476645154304</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.17141848259237</v>
+        <v>34.44346265443089</v>
       </c>
       <c r="D56" t="n">
-        <v>14.29896372833128</v>
+        <v>13.76689602714228</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.76838589455352</v>
+        <v>34.08705392137239</v>
       </c>
       <c r="D57" t="n">
-        <v>13.88873779970461</v>
+        <v>15.41838620491878</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.06048647721641</v>
+        <v>34.52671230064393</v>
       </c>
       <c r="D58" t="n">
-        <v>14.19774825322163</v>
+        <v>15.482305330742</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.85073021844092</v>
+        <v>32.61281093011429</v>
       </c>
       <c r="D59" t="n">
-        <v>14.28713089970612</v>
+        <v>14.96003986020365</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.70640408499892</v>
+        <v>31.64778762052192</v>
       </c>
       <c r="D60" t="n">
-        <v>15.264551995598</v>
+        <v>13.46084163886268</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>33.41992015325413</v>
+        <v>29.63613341791152</v>
       </c>
       <c r="D61" t="n">
-        <v>13.56952568263908</v>
+        <v>14.35965721093363</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.24158623393723</v>
+        <v>31.20202157923444</v>
       </c>
       <c r="D62" t="n">
-        <v>15.13081835675904</v>
+        <v>10.9846750547647</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.11903051303904</v>
+        <v>29.56565871098671</v>
       </c>
       <c r="D63" t="n">
-        <v>14.73628569148573</v>
+        <v>14.34774046101022</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.07100694828158</v>
+        <v>26.2886261257239</v>
       </c>
       <c r="D64" t="n">
-        <v>13.91261656965313</v>
+        <v>14.80700723171249</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.094131705753</v>
+        <v>28.35898983422642</v>
       </c>
       <c r="D65" t="n">
-        <v>15.60769192848335</v>
+        <v>14.66048198393432</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.78594834812978</v>
+        <v>25.04148889321826</v>
       </c>
       <c r="D66" t="n">
-        <v>14.88026434664887</v>
+        <v>13.45555067586158</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.80473268904051</v>
+        <v>27.22385579408279</v>
       </c>
       <c r="D67" t="n">
-        <v>14.02500104306875</v>
+        <v>12.88146477101032</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.42778016178806</v>
+        <v>24.31771426262309</v>
       </c>
       <c r="D68" t="n">
-        <v>15.88215595849245</v>
+        <v>15.3466623685295</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.03143986440895</v>
+        <v>22.09253855944783</v>
       </c>
       <c r="D69" t="n">
-        <v>13.42037247771017</v>
+        <v>12.56186603142442</v>
       </c>
     </row>
   </sheetData>
